--- a/네이버뉴스/data/101.xlsx
+++ b/네이버뉴스/data/101.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>수성, 상용 전기차 사업 기대감에 반등</t>
+          <t>1시간 만에 안마의자 1억5000만원어치 판 개그맨 출신, 누구?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[코인뉴스] 일론 머스크 “비트코인, 부자들에게만 유리”</t>
+          <t>최태원 "중대재해법 CEO처벌 능사 아냐…경제적 접근이 합리적"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[속보]신규확진 6233명…전주대비 1202명 감소</t>
+          <t>삼성전자, 새해 희망 기원 ‘세일 페스타’ 개최</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>빙그레, 환경경영시스템(ISO 14001) 국제표준 인증 획득</t>
+          <t>종부세 고령자 유예 기준··· 만 60세 이상, 연소득 3000만원 이하  1주택 실거주자 유력</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:09</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>자안바이오, 상장폐지 정리 매매 첫날 80%대 폭락</t>
+          <t>수도권 7억 전세도 주금공 전세보증 이용가능</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BGF리테일, 공정거래협약 가맹분야 이행평가 최우수 표창</t>
+          <t>은행 주택대출, 내년 본격 재개···우대금리도 복원해 금리 낮춰</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>청호나이스, 요양원·복지관 등에 마스크와 쌀 전달</t>
+          <t>제2의 건강보험이라는 실손보험, 보험료 폭탄 터진다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">빙그레,   환경경영시스템(ISO 14001) 국제표준 인증 획득 </t>
+          <t>광산업체 '물량 조절'에 철광석값 다시 뜀박질</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>아시아교류협회, 콘텐츠 크리에이터 아카데미 1기 수료식 진행</t>
+          <t>[시승기]1월 대구서 시작하는 유료 자율주행차 미리 타보니</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>오바오바이크, 레트로한 e-카페레이서 ‘CR-21′ 공개</t>
+          <t>[사진]휘발유 가격 6주 연속 하락...서울 5개월만에 리터당 1,600원대 진입</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[특징주] 美 오미크론 우려 완화...여행株 동반 강세</t>
+          <t>역대급 호황 골프장, 세금은 덜냈다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,30 +656,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[속보] 오미크론 신규 확정 16명…누적 262명</t>
+          <t>내년 실손보험료 이번주 결정… 갱신 대상자 ‘인상 폭탄’ 맞나</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CU·이마트24, 공정위 가맹분야 이행평가 '최우수'</t>
+          <t>60세 이상 1주택자, 종부세 유예 '유력'</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,30 +692,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SK바이오사이언스 한국·태국·베트남서 노바백스 직접 판매</t>
+          <t>DB손보·푸본현대·현대카드·웰컴저축은행, 가계대출 한도관리 부실 지적</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>삼강엠앤티, 5729억 규모 해상풍력 하부구조물 수주</t>
+          <t>새해 한국 경제  3%대 안팎 성장…물가·부채·공급망 리스크</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>허닭, 올해만 3,900만 개 이상 판매... "제품 부문별 판매 고루 상승"</t>
+          <t>새해 한국 경제  3%대 안팎 성장…물가·부채·공급망 리스크</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>조폐공사, '손흥민 선수 기념메달' 판매 수익금 기부</t>
+          <t>'코로나 직격탄' 자영업자…절반이 지난해 年매출 6천만원도 안돼</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,12 +764,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[속보]정부, 임시국무회의 열고 특사 심의…김 총리 "국민 대화합 취지"</t>
+          <t>전동화 서막 끝났다…전기차 출시・양산 쌍끌이 예고한 자동차 업계</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:05</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -782,12 +782,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>컬리, 드라이아이스 직접 만든다.. 제조사에 지분 투자</t>
+          <t>배민 배달료 산정 기준, 직선거리에서 내비게이션 실거리로</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.24 09:29</t>
+          <t>2021.12.26 17:05</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[부고]김태훈(군인공제회 특수사업단장)씨 빙부상</t>
+          <t>[마켓인사이트] 디아지오, 윈저·조니워커 판매 부진에 위스키 사업 매각</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.24 09:29</t>
+          <t>2021.12.26 17:04</t>
         </is>
       </c>
       <c r="C21" t="n">
